--- a/recursospreojecte/Pressupost.xlsx
+++ b/recursospreojecte/Pressupost.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="15315" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pressupost" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="Reposteria" sheetId="3" r:id="rId3"/>
     <sheet name="Begudes" sheetId="4" r:id="rId4"/>
     <sheet name="Llum" sheetId="5" r:id="rId5"/>
+    <sheet name="reposteria i begudes" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>Ordinadors clients</t>
   </si>
@@ -288,6 +294,12 @@
   </si>
   <si>
     <t>Total amb IVA =</t>
+  </si>
+  <si>
+    <t>Café (paquets) 1kg</t>
+  </si>
+  <si>
+    <t>Café descafeinat (paquets) 1kg</t>
   </si>
 </sst>
 </file>
@@ -299,7 +311,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,16 +334,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,13 +389,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,17 +523,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +899,7 @@
         <v>40.950000000000003</v>
       </c>
       <c r="E2" s="4">
-        <f>C2*B2</f>
+        <f t="shared" ref="E2:E24" si="0">C2*B2</f>
         <v>1560</v>
       </c>
       <c r="F2" s="3">
@@ -728,15 +918,15 @@
         <v>335.9</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D35" si="0">(C3*21/100)</f>
+        <f t="shared" ref="D3:D35" si="1">(C3*21/100)</f>
         <v>70.539000000000001</v>
       </c>
       <c r="E3" s="4">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>335.9</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F35" si="1">(C3-D3)*B3</f>
+        <f t="shared" ref="F3:F35" si="2">(C3-D3)*B3</f>
         <v>265.36099999999999</v>
       </c>
     </row>
@@ -751,15 +941,15 @@
         <v>49.9</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.478999999999999</v>
       </c>
       <c r="E4" s="4">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>199.6</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.684</v>
       </c>
     </row>
@@ -774,15 +964,15 @@
         <v>30.75</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4574999999999996</v>
       </c>
       <c r="E5" s="4">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>492</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>388.68</v>
       </c>
     </row>
@@ -797,15 +987,15 @@
         <v>91</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.11</v>
       </c>
       <c r="E6" s="4">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>728</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>575.12</v>
       </c>
     </row>
@@ -820,15 +1010,15 @@
         <v>39.9</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3789999999999996</v>
       </c>
       <c r="E7" s="4">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>319.2</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>252.16800000000001</v>
       </c>
     </row>
@@ -843,15 +1033,15 @@
         <v>129.9</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.279</v>
       </c>
       <c r="E8" s="4">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>129.9</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102.62100000000001</v>
       </c>
     </row>
@@ -866,15 +1056,15 @@
         <v>279</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.59</v>
       </c>
       <c r="E9" s="4">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220.41</v>
       </c>
     </row>
@@ -889,15 +1079,15 @@
         <v>2669.6</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560.61599999999999</v>
       </c>
       <c r="E10" s="4">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>2669.6</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2108.9839999999999</v>
       </c>
     </row>
@@ -912,15 +1102,15 @@
         <v>130</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
       <c r="E11" s="4">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102.7</v>
       </c>
     </row>
@@ -935,15 +1125,15 @@
         <v>995.94</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>209.1474</v>
       </c>
       <c r="E12" s="4">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>995.94</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>786.79259999999999</v>
       </c>
     </row>
@@ -958,15 +1148,15 @@
         <v>1450</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
       <c r="E13" s="4">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>1450</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1145.5</v>
       </c>
     </row>
@@ -981,15 +1171,15 @@
         <v>641.29999999999995</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134.673</v>
       </c>
       <c r="E14" s="4">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>1923.8999999999999</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1519.8809999999999</v>
       </c>
     </row>
@@ -1004,15 +1194,15 @@
         <v>29</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.09</v>
       </c>
       <c r="E15" s="4">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.91</v>
       </c>
     </row>
@@ -1027,15 +1217,15 @@
         <v>35.950000000000003</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5495000000000001</v>
       </c>
       <c r="E16" s="4">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>35.950000000000003</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.400500000000001</v>
       </c>
     </row>
@@ -1050,15 +1240,15 @@
         <v>43.7</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1769999999999996</v>
       </c>
       <c r="E17" s="4">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>43.7</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.523000000000003</v>
       </c>
     </row>
@@ -1073,15 +1263,15 @@
         <v>2016.38</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>423.43980000000005</v>
       </c>
       <c r="E18" s="4">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>2016.38</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1592.9402</v>
       </c>
     </row>
@@ -1096,15 +1286,15 @@
         <v>38.9</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1690000000000005</v>
       </c>
       <c r="E19" s="4">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>77.8</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.461999999999996</v>
       </c>
     </row>
@@ -1119,15 +1309,15 @@
         <v>99</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.79</v>
       </c>
       <c r="E20" s="4">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>1485</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1173.1500000000001</v>
       </c>
     </row>
@@ -1142,15 +1332,15 @@
         <v>14.53</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0512999999999999</v>
       </c>
       <c r="E21" s="4">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>58.12</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.9148</v>
       </c>
     </row>
@@ -1165,15 +1355,15 @@
         <v>600</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="E22" s="3">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>474</v>
       </c>
     </row>
@@ -1188,15 +1378,15 @@
         <v>50</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="E23" s="3">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
     </row>
@@ -1211,15 +1401,15 @@
         <v>13.95</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9295</v>
       </c>
       <c r="E24" s="3">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.020499999999998</v>
       </c>
     </row>
@@ -1254,15 +1444,15 @@
         <v>13.74</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8854000000000002</v>
       </c>
       <c r="E26" s="3">
-        <f>C26*B26</f>
+        <f t="shared" ref="E26:E35" si="3">C26*B26</f>
         <v>41.22</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.563800000000001</v>
       </c>
     </row>
@@ -1277,15 +1467,15 @@
         <v>11.99</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5179</v>
       </c>
       <c r="E27" s="3">
-        <f>C27*B27</f>
+        <f t="shared" si="3"/>
         <v>23.98</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.944200000000002</v>
       </c>
     </row>
@@ -1300,15 +1490,15 @@
         <v>22.95</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8194999999999997</v>
       </c>
       <c r="E28" s="3">
-        <f>C28*B28</f>
+        <f t="shared" si="3"/>
         <v>22.95</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.130499999999998</v>
       </c>
     </row>
@@ -1323,15 +1513,15 @@
         <v>126</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.46</v>
       </c>
       <c r="E29" s="3">
-        <f>C29*B29</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199.07999999999998</v>
       </c>
     </row>
@@ -1346,15 +1536,15 @@
         <v>46.95</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8595000000000006</v>
       </c>
       <c r="E30" s="3">
-        <f>C30*B30</f>
+        <f t="shared" si="3"/>
         <v>93.9</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.181000000000012</v>
       </c>
     </row>
@@ -1369,15 +1559,15 @@
         <v>495</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103.95</v>
       </c>
       <c r="E31" s="3">
-        <f>C31*B31</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>391.05</v>
       </c>
     </row>
@@ -1392,15 +1582,15 @@
         <v>299</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.79</v>
       </c>
       <c r="E32" s="3">
-        <f>C32*B32</f>
+        <f t="shared" si="3"/>
         <v>299</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>236.21</v>
       </c>
     </row>
@@ -1415,15 +1605,15 @@
         <v>1400</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="E33" s="3">
-        <f>C33*B33</f>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1106</v>
       </c>
     </row>
@@ -1438,15 +1628,15 @@
         <v>763.76</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160.3896</v>
       </c>
       <c r="E34" s="4">
-        <f>C34*B34</f>
+        <f t="shared" si="3"/>
         <v>763.76</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>603.37040000000002</v>
       </c>
     </row>
@@ -1461,15 +1651,15 @@
         <v>1800</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>378</v>
       </c>
       <c r="E35" s="4">
-        <f>C35*B35</f>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1422</v>
       </c>
     </row>
@@ -1500,7 +1690,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1787,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +2081,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="I21:N21"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,4 +2556,427 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="16">
+        <f>D5*C5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="15">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:E20" si="0">D6*C6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="15">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="15">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="15">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="15">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="15">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15">
+        <v>20</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="15">
+        <v>20</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="15">
+        <v>20</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="E21" s="16">
+        <f>D21*C21</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:E29" si="1">D22*C22</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="15">
+        <v>20</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="15">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
+        <v>11.799999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3.49</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="15">
+        <v>25</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="16">
+        <v>5</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="15">
+        <v>7</v>
+      </c>
+      <c r="D29" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="18">
+        <f>SUM(E5:E29)</f>
+        <v>582.66999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/recursospreojecte/Pressupost.xlsx
+++ b/recursospreojecte/Pressupost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Pressupost" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>Ordinadors clients</t>
   </si>
@@ -284,15 +284,6 @@
     <t>Totals IVA</t>
   </si>
   <si>
-    <t>Total Sense IVA</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>Total Sense IVA=</t>
-  </si>
-  <si>
     <t>Total amb IVA =</t>
   </si>
   <si>
@@ -300,6 +291,12 @@
   </si>
   <si>
     <t>Café descafeinat (paquets) 1kg</t>
+  </si>
+  <si>
+    <t>Llet</t>
+  </si>
+  <si>
+    <t>Aigua 50 cl (pack. 6)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -501,6 +498,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -510,7 +560,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,9 +569,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +589,28 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
@@ -851,833 +920,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18">
+        <v>195</v>
+      </c>
+      <c r="D2" s="19">
+        <f>C2*B2</f>
+        <v>1560</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>335.9</v>
+      </c>
+      <c r="D3" s="19">
+        <f>C3*B3</f>
+        <v>335.9</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>49.9</v>
+      </c>
+      <c r="D4" s="19">
+        <f>C4*B4</f>
+        <v>199.6</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18">
+        <v>30.75</v>
+      </c>
+      <c r="D5" s="19">
+        <f>C5*B5</f>
+        <v>492</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18">
+        <v>91</v>
+      </c>
+      <c r="D6" s="19">
+        <f>C6*B6</f>
+        <v>728</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7*B7</f>
+        <v>319.2</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>129.9</v>
+      </c>
+      <c r="D8" s="19">
+        <f>C8*B8</f>
+        <v>129.9</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>279</v>
+      </c>
+      <c r="D9" s="19">
+        <f>C9*B9</f>
+        <v>279</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2669.6</v>
+      </c>
+      <c r="D10" s="19">
+        <f>C10*B10</f>
+        <v>2669.6</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>130</v>
+      </c>
+      <c r="D11" s="19">
+        <f>C11*B11</f>
+        <v>130</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>995.94</v>
+      </c>
+      <c r="D12" s="19">
+        <f>C12*B12</f>
+        <v>995.94</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1450</v>
+      </c>
+      <c r="D13" s="19">
+        <f>C13*B13</f>
+        <v>1450</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>641.29999999999995</v>
+      </c>
+      <c r="D14" s="19">
+        <f>C14*B14</f>
+        <v>1923.8999999999999</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19">
+        <f>C15*B15</f>
+        <v>29</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="D16" s="19">
+        <f>C16*B16</f>
+        <v>35.950000000000003</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43.7</v>
+      </c>
+      <c r="D17" s="19">
+        <f>C17*B17</f>
+        <v>43.7</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2016.38</v>
+      </c>
+      <c r="D18" s="19">
+        <f>C18*B18</f>
+        <v>2016.38</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>38.9</v>
+      </c>
+      <c r="D19" s="19">
+        <f>C19*B19</f>
+        <v>77.8</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
+        <v>15</v>
+      </c>
+      <c r="C20" s="18">
+        <v>99</v>
+      </c>
+      <c r="D20" s="19">
+        <f>C20*B20</f>
+        <v>1485</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18">
+        <v>14.53</v>
+      </c>
+      <c r="D21" s="19">
+        <f>C21*B21</f>
+        <v>58.12</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>600</v>
+      </c>
+      <c r="D22" s="20">
+        <f>C22*B22</f>
+        <v>600</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20">
+        <f>C23*B23</f>
+        <v>50</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>13.95</v>
+      </c>
+      <c r="D24" s="20">
+        <f>C24*B24</f>
+        <v>13.95</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7">
+        <v>16</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="20">
+        <v>183.84</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="18">
+        <v>13.74</v>
+      </c>
+      <c r="D26" s="20">
+        <f>C26*B26</f>
+        <v>41.22</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="18">
+        <v>11.99</v>
+      </c>
+      <c r="D27" s="20">
+        <f>C27*B27</f>
+        <v>23.98</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>22.95</v>
+      </c>
+      <c r="D28" s="20">
+        <f>C28*B28</f>
+        <v>22.95</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>126</v>
+      </c>
+      <c r="D29" s="20">
+        <f>C29*B29</f>
+        <v>252</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="18">
+        <v>46.95</v>
+      </c>
+      <c r="D30" s="20">
+        <f>C30*B30</f>
+        <v>93.9</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18">
+        <v>495</v>
+      </c>
+      <c r="D31" s="20">
+        <f>C31*B31</f>
+        <v>495</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>299</v>
+      </c>
+      <c r="D32" s="20">
+        <f>C32*B32</f>
+        <v>299</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="22">
+        <v>20</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="24">
+        <f>C33*B33</f>
+        <v>25</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="22">
+        <v>20</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="24">
+        <f>C34*B34</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="22">
+        <v>20</v>
+      </c>
+      <c r="C35" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="D35" s="24">
+        <f>C35*B35</f>
+        <v>27</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="22">
+        <v>20</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36" s="24">
+        <f>C36*B36</f>
+        <v>22</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="22">
+        <v>20</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D37" s="24">
+        <f>C37*B37</f>
+        <v>28</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="22">
+        <v>20</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D38" s="24">
+        <f>C38*B38</f>
+        <v>28</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="22">
+        <v>20</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="D39" s="24">
+        <f>C39*B39</f>
+        <v>24</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="22">
+        <v>20</v>
+      </c>
+      <c r="C40" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="D40" s="24">
+        <f>C40*B40</f>
+        <v>27</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="22">
+        <v>20</v>
+      </c>
+      <c r="C41" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="D41" s="24">
+        <f>C41*B41</f>
+        <v>27</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="22">
+        <v>20</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D42" s="24">
+        <f>C42*B42</f>
+        <v>28</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="22">
+        <v>20</v>
+      </c>
+      <c r="C43" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D43" s="24">
+        <f>C43*B43</f>
+        <v>28</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="22">
+        <v>20</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D44" s="24">
+        <f>C44*B44</f>
+        <v>28</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="22">
+        <v>20</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="D45" s="24">
+        <f>C45*B45</f>
+        <v>29</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="22">
+        <v>20</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1.05</v>
+      </c>
+      <c r="D46" s="24">
+        <f>C46*B46</f>
+        <v>21</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="22">
+        <v>20</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D47" s="24">
+        <f>C47*B47</f>
+        <v>22</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="22">
+        <v>20</v>
+      </c>
+      <c r="C48" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="D48" s="24">
+        <f>C48*B48</f>
+        <v>26</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="22">
+        <v>20</v>
+      </c>
+      <c r="C49" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="D49" s="24">
+        <f>C49*B49</f>
+        <v>8.6</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="22">
+        <v>20</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="D50" s="24">
+        <f>C50*B50</f>
+        <v>8.6</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="22">
+        <v>20</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D51" s="24">
+        <f>C51*B51</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="22">
+        <v>20</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D52" s="24">
+        <f>C52*B52</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="22">
+        <v>20</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="D53" s="24">
+        <f>C53*B53</f>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="22">
+        <v>3</v>
+      </c>
+      <c r="C54" s="23">
+        <v>3.49</v>
+      </c>
+      <c r="D54" s="24">
+        <f>C54*B54</f>
+        <v>10.47</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="22">
+        <v>25</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D55" s="24">
+        <f>C55*B55</f>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B56" s="22">
+        <v>10</v>
+      </c>
+      <c r="C56" s="23">
+        <v>5</v>
+      </c>
+      <c r="D56" s="24">
+        <f>C56*B56</f>
+        <v>50</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="22">
+        <v>7</v>
+      </c>
+      <c r="C57" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="D57" s="24">
+        <f>C57*B57</f>
+        <v>36.4</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="22">
+        <v>5</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="D58" s="24">
+        <f>C58*B58</f>
+        <v>4</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="18">
+        <v>1400</v>
+      </c>
+      <c r="D59" s="20">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="18">
+        <v>763.76</v>
+      </c>
+      <c r="D60" s="20">
+        <v>763.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="25">
+        <v>1</v>
+      </c>
+      <c r="C61" s="26">
+        <v>1800</v>
+      </c>
+      <c r="D61" s="27">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>195</v>
-      </c>
-      <c r="D2" s="3">
-        <f>(C2*21/100)</f>
-        <v>40.950000000000003</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E24" si="0">C2*B2</f>
-        <v>1560</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(C2-D2)*B2</f>
-        <v>1232.4000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>335.9</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D35" si="1">(C3*21/100)</f>
-        <v>70.539000000000001</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" si="0"/>
-        <v>335.9</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F35" si="2">(C3-D3)*B3</f>
-        <v>265.36099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>49.9</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>10.478999999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>199.6</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>157.684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30.75</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>6.4574999999999996</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>492</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>388.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>91</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>19.11</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>728</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>575.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>39.9</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>8.3789999999999996</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>319.2</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>252.16800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>129.9</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>27.279</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>129.9</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>102.62100000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>279</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>58.59</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>279</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>220.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2669.6</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>560.61599999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>2669.6</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>2108.9839999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>130</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>27.3</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>102.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>995.94</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>209.1474</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>995.94</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>786.79259999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1450</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>304.5</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>1450</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>1145.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>641.29999999999995</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>134.673</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>1923.8999999999999</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>1519.8809999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>6.09</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>7.5495000000000001</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>35.950000000000003</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>28.400500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43.7</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>43.7</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>34.523000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2016.38</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>423.43980000000005</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>2016.38</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>1592.9402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>38.9</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>8.1690000000000005</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>77.8</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>61.461999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>99</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>20.79</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>1485</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>1173.1500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>14.53</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>3.0512999999999999</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>58.12</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="2"/>
-        <v>45.9148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>600</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="2"/>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9295</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>13.95</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="2"/>
-        <v>11.020499999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="3">
-        <v>183.84</v>
-      </c>
-      <c r="F25" s="3">
-        <v>151.93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>13.74</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8854000000000002</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:E35" si="3">C26*B26</f>
-        <v>41.22</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="2"/>
-        <v>32.563800000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>11.99</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5179</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>23.98</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="2"/>
-        <v>18.944200000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>22.95</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8194999999999997</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>22.95</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="2"/>
-        <v>18.130499999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>126</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="1"/>
-        <v>26.46</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="2"/>
-        <v>199.07999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>46.95</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="1"/>
-        <v>9.8595000000000006</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="3"/>
-        <v>93.9</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="2"/>
-        <v>74.181000000000012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>495</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="1"/>
-        <v>103.95</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="2"/>
-        <v>391.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>299</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="1"/>
-        <v>62.79</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="2"/>
-        <v>236.21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="2"/>
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>763.76</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="1"/>
-        <v>160.3896</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="3"/>
-        <v>763.76</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="2"/>
-        <v>603.37040000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="2"/>
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3">
-        <f>SUM(E2:E35)</f>
-        <v>20998.59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="3">
-        <f>SUM(F2:F35)</f>
-        <v>16595.582499999997</v>
-      </c>
+      <c r="D63" s="5">
+        <f>SUM(D2:D61)</f>
+        <v>21585.260000000002</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,7 +2051,7 @@
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>20</v>
       </c>
       <c r="C2" s="3">
@@ -1827,7 +2066,7 @@
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -1842,7 +2081,7 @@
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>20</v>
       </c>
       <c r="C4" s="3">
@@ -1857,7 +2096,7 @@
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>20</v>
       </c>
       <c r="C5" s="3">
@@ -1872,7 +2111,7 @@
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>20</v>
       </c>
       <c r="C6" s="3">
@@ -1887,7 +2126,7 @@
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>20</v>
       </c>
       <c r="C7" s="3">
@@ -1902,7 +2141,7 @@
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>20</v>
       </c>
       <c r="C8" s="3">
@@ -1917,7 +2156,7 @@
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>20</v>
       </c>
       <c r="C9" s="3">
@@ -1932,7 +2171,7 @@
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1947,7 +2186,7 @@
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>20</v>
       </c>
       <c r="C11" s="3">
@@ -1962,7 +2201,7 @@
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>20</v>
       </c>
       <c r="C12" s="3">
@@ -1977,7 +2216,7 @@
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>20</v>
       </c>
       <c r="C13" s="3">
@@ -1992,7 +2231,7 @@
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="3">
@@ -2007,7 +2246,7 @@
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="3">
@@ -2022,7 +2261,7 @@
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>20</v>
       </c>
       <c r="C16" s="3">
@@ -2037,7 +2276,7 @@
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>20</v>
       </c>
       <c r="C17" s="3">
@@ -2049,7 +2288,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G31"/>
+  <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,405 +2813,419 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="14">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15">
         <v>1.25</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>D5*C5</f>
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="15">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15">
         <v>1.5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f t="shared" ref="E6:E20" si="0">D6*C6</f>
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15">
         <v>1.35</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="14">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15">
         <v>1.4</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="15">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15">
         <v>1.4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="14">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15">
         <v>1.2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15">
-        <v>20</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="14">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15">
         <v>1.35</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
-        <v>20</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="14">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15">
         <v>1.35</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="15">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15">
         <v>1.4</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="15">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="14">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15">
         <v>1.4</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15">
-        <v>20</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="14">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15">
         <v>1.4</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15">
-        <v>20</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="14">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15">
         <v>1.45</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="15">
-        <v>20</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C18" s="14">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15">
         <v>1.05</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15">
-        <v>20</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="14">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="15">
-        <v>20</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="14">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15">
         <v>1.3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15">
-        <v>20</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="14">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15">
         <v>0.43</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <f>D21*C21</f>
         <v>8.6</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="15">
-        <v>20</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" s="14">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15">
         <v>0.43</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <f t="shared" ref="E22:E29" si="1">D22*C22</f>
         <v>8.6</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="15">
-        <v>20</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C23" s="14">
+        <v>20</v>
+      </c>
+      <c r="D23" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="15">
-        <v>20</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="14">
+        <v>20</v>
+      </c>
+      <c r="D24" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="15">
-        <v>20</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C25" s="14">
+        <v>20</v>
+      </c>
+      <c r="D25" s="15">
         <v>0.59</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f t="shared" si="1"/>
         <v>11.799999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>3</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>3.49</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f t="shared" si="1"/>
         <v>10.47</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="14">
         <v>25</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>14.000000000000002</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="14">
         <v>10</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="14">
         <v>7</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>5.2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <f t="shared" si="1"/>
         <v>36.4</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="17" t="s">
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30" si="2">D30*C30</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="18">
-        <f>SUM(E5:E29)</f>
-        <v>582.66999999999996</v>
+      <c r="E32" s="17">
+        <f>SUM(E5:E30)</f>
+        <v>586.66999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/recursospreojecte/Pressupost.xlsx
+++ b/recursospreojecte/Pressupost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>Ordinadors clients</t>
   </si>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +960,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="19">
-        <f>C2*B2</f>
+        <f t="shared" ref="D2:D24" si="0">C2*B2</f>
         <v>1560</v>
       </c>
       <c r="E2" s="3"/>
@@ -976,7 +976,7 @@
         <v>335.9</v>
       </c>
       <c r="D3" s="19">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>335.9</v>
       </c>
       <c r="E3" s="3"/>
@@ -992,7 +992,7 @@
         <v>49.9</v>
       </c>
       <c r="D4" s="19">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>199.6</v>
       </c>
       <c r="E4" s="3"/>
@@ -1008,7 +1008,7 @@
         <v>30.75</v>
       </c>
       <c r="D5" s="19">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>492</v>
       </c>
       <c r="E5" s="3"/>
@@ -1024,7 +1024,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="19">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>728</v>
       </c>
       <c r="E6" s="3"/>
@@ -1040,7 +1040,7 @@
         <v>39.9</v>
       </c>
       <c r="D7" s="19">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>319.2</v>
       </c>
       <c r="E7" s="3"/>
@@ -1056,7 +1056,7 @@
         <v>129.9</v>
       </c>
       <c r="D8" s="19">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>129.9</v>
       </c>
       <c r="E8" s="3"/>
@@ -1072,7 +1072,7 @@
         <v>279</v>
       </c>
       <c r="D9" s="19">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="E9" s="3"/>
@@ -1088,7 +1088,7 @@
         <v>2669.6</v>
       </c>
       <c r="D10" s="19">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>2669.6</v>
       </c>
       <c r="E10" s="3"/>
@@ -1104,7 +1104,7 @@
         <v>130</v>
       </c>
       <c r="D11" s="19">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E11" s="3"/>
@@ -1120,7 +1120,7 @@
         <v>995.94</v>
       </c>
       <c r="D12" s="19">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>995.94</v>
       </c>
       <c r="E12" s="3"/>
@@ -1136,7 +1136,7 @@
         <v>1450</v>
       </c>
       <c r="D13" s="19">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>1450</v>
       </c>
       <c r="E13" s="3"/>
@@ -1152,7 +1152,7 @@
         <v>641.29999999999995</v>
       </c>
       <c r="D14" s="19">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>1923.8999999999999</v>
       </c>
       <c r="E14" s="3"/>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="19">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E15" s="3"/>
@@ -1184,7 +1184,7 @@
         <v>35.950000000000003</v>
       </c>
       <c r="D16" s="19">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>35.950000000000003</v>
       </c>
       <c r="E16" s="3"/>
@@ -1200,7 +1200,7 @@
         <v>43.7</v>
       </c>
       <c r="D17" s="19">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>43.7</v>
       </c>
       <c r="E17" s="3"/>
@@ -1216,7 +1216,7 @@
         <v>2016.38</v>
       </c>
       <c r="D18" s="19">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>2016.38</v>
       </c>
       <c r="E18" s="3"/>
@@ -1232,7 +1232,7 @@
         <v>38.9</v>
       </c>
       <c r="D19" s="19">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>77.8</v>
       </c>
       <c r="E19" s="3"/>
@@ -1248,7 +1248,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="19">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>1485</v>
       </c>
       <c r="E20" s="3"/>
@@ -1264,7 +1264,7 @@
         <v>14.53</v>
       </c>
       <c r="D21" s="19">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>58.12</v>
       </c>
       <c r="E21" s="3"/>
@@ -1280,7 +1280,7 @@
         <v>600</v>
       </c>
       <c r="D22" s="20">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="E22" s="3"/>
@@ -1296,7 +1296,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="20">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E23" s="3"/>
@@ -1312,7 +1312,7 @@
         <v>13.95</v>
       </c>
       <c r="D24" s="20">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
       <c r="E24" s="3"/>
@@ -1343,7 +1343,7 @@
         <v>13.74</v>
       </c>
       <c r="D26" s="20">
-        <f>C26*B26</f>
+        <f t="shared" ref="D26:D34" si="1">C26*B26</f>
         <v>41.22</v>
       </c>
       <c r="E26" s="3"/>
@@ -1359,7 +1359,7 @@
         <v>11.99</v>
       </c>
       <c r="D27" s="20">
-        <f>C27*B27</f>
+        <f t="shared" si="1"/>
         <v>23.98</v>
       </c>
       <c r="E27" s="3"/>
@@ -1375,7 +1375,7 @@
         <v>22.95</v>
       </c>
       <c r="D28" s="20">
-        <f>C28*B28</f>
+        <f t="shared" si="1"/>
         <v>22.95</v>
       </c>
       <c r="E28" s="3"/>
@@ -1391,7 +1391,7 @@
         <v>126</v>
       </c>
       <c r="D29" s="20">
-        <f>C29*B29</f>
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="E29" s="3"/>
@@ -1407,7 +1407,7 @@
         <v>46.95</v>
       </c>
       <c r="D30" s="20">
-        <f>C30*B30</f>
+        <f t="shared" si="1"/>
         <v>93.9</v>
       </c>
       <c r="E30" s="3"/>
@@ -1423,7 +1423,7 @@
         <v>495</v>
       </c>
       <c r="D31" s="20">
-        <f>C31*B31</f>
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
       <c r="E31" s="3"/>
@@ -1439,7 +1439,7 @@
         <v>299</v>
       </c>
       <c r="D32" s="20">
-        <f>C32*B32</f>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="E32" s="3"/>
@@ -1455,7 +1455,7 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="24">
-        <f>C33*B33</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E33" s="3"/>
@@ -1471,46 +1471,46 @@
         <v>1.5</v>
       </c>
       <c r="D34" s="24">
-        <f>C34*B34</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="22">
         <v>20</v>
       </c>
       <c r="C35" s="23">
-        <v>1.35</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D35" s="24">
         <f>C35*B35</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="22">
         <v>20</v>
       </c>
       <c r="C36" s="23">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D36" s="24">
         <f>C36*B36</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="22">
         <v>20</v>
@@ -1526,39 +1526,39 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="22">
         <v>20</v>
       </c>
       <c r="C38" s="23">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D38" s="24">
         <f>C38*B38</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="22">
         <v>20</v>
       </c>
       <c r="C39" s="23">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="D39" s="24">
         <f>C39*B39</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="22">
         <v>20</v>
@@ -1574,23 +1574,23 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="22">
         <v>20</v>
       </c>
       <c r="C41" s="23">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D41" s="24">
         <f>C41*B41</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="22">
         <v>20</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="22">
         <v>20</v>
@@ -1622,87 +1622,87 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="22">
         <v>20</v>
       </c>
       <c r="C44" s="23">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D44" s="24">
         <f>C44*B44</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="22">
         <v>20</v>
       </c>
       <c r="C45" s="23">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="D45" s="24">
         <f>C45*B45</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="22">
         <v>20</v>
       </c>
       <c r="C46" s="23">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D46" s="24">
         <f>C46*B46</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="22">
         <v>20</v>
       </c>
       <c r="C47" s="23">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D47" s="24">
         <f>C47*B47</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="22">
         <v>20</v>
       </c>
       <c r="C48" s="23">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
       <c r="D48" s="24">
         <f>C48*B48</f>
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="22">
         <v>20</v>
@@ -1718,23 +1718,23 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B50" s="22">
         <v>20</v>
       </c>
       <c r="C50" s="23">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D50" s="24">
         <f>C50*B50</f>
-        <v>8.6</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="22">
         <v>20</v>
@@ -1750,169 +1750,154 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="22">
         <v>20</v>
       </c>
       <c r="C52" s="23">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="D52" s="24">
         <f>C52*B52</f>
-        <v>11.399999999999999</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="22">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C53" s="23">
-        <v>0.59</v>
+        <v>3.49</v>
       </c>
       <c r="D53" s="24">
         <f>C53*B53</f>
-        <v>11.799999999999999</v>
+        <v>10.47</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B54" s="22">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C54" s="23">
-        <v>3.49</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D54" s="24">
         <f>C54*B54</f>
-        <v>10.47</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C55" s="23">
-        <v>0.56000000000000005</v>
+        <v>5</v>
       </c>
       <c r="D55" s="24">
         <f>C55*B55</f>
-        <v>14.000000000000002</v>
+        <v>50</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" s="23">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D56" s="24">
         <f>C56*B56</f>
-        <v>50</v>
+        <v>36.4</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="23">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="D57" s="24">
         <f>C57*B57</f>
-        <v>36.4</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="22">
-        <v>5</v>
-      </c>
-      <c r="C58" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="D58" s="24">
-        <f>C58*B58</f>
-        <v>4</v>
+      <c r="A58" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="18">
+        <v>1400</v>
+      </c>
+      <c r="D58" s="20">
+        <v>1400</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="7">
         <v>1</v>
       </c>
       <c r="C59" s="18">
-        <v>1400</v>
+        <v>763.76</v>
       </c>
       <c r="D59" s="20">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="7">
+        <v>763.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="25">
         <v>1</v>
       </c>
-      <c r="C60" s="18">
-        <v>763.76</v>
-      </c>
-      <c r="D60" s="20">
-        <v>763.76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="25">
-        <v>1</v>
-      </c>
-      <c r="C61" s="26">
+      <c r="C60" s="26">
         <v>1800</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D60" s="27">
         <v>1800</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="5">
+        <f>SUM(D2:D60)</f>
+        <v>21558.260000000002</v>
+      </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="5">
-        <f>SUM(D2:D61)</f>
-        <v>21585.260000000002</v>
-      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
